--- a/examples/wells_caprocks_userdef_rupture/Results/results.xlsx
+++ b/examples/wells_caprocks_userdef_rupture/Results/results.xlsx
@@ -735,13 +735,13 @@
         <v>34.45</v>
       </c>
       <c r="D2" t="n">
-        <v>0.3139</v>
+        <v>0.2475</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6494</v>
+        <v>0.6091</v>
       </c>
       <c r="F2" t="n">
-        <v>0.9520999999999999</v>
+        <v>0.9491000000000001</v>
       </c>
       <c r="G2" t="n">
         <v>1</v>
@@ -750,25 +750,25 @@
         <v>1</v>
       </c>
       <c r="I2" t="n">
-        <v>0.842</v>
+        <v>0.8325</v>
       </c>
       <c r="J2" t="n">
-        <v>0.1626</v>
+        <v>0.1903</v>
       </c>
       <c r="K2" t="n">
-        <v>0.432</v>
+        <v>0.4459</v>
       </c>
       <c r="L2" t="n">
-        <v>0.7836</v>
+        <v>0.7884</v>
       </c>
       <c r="M2" t="n">
-        <v>0.982</v>
+        <v>0.9734</v>
       </c>
       <c r="N2" t="n">
         <v>1</v>
       </c>
       <c r="O2" t="n">
-        <v>0.7198</v>
+        <v>0.7187</v>
       </c>
     </row>
     <row r="3">
@@ -784,22 +784,22 @@
         <v>34.45</v>
       </c>
       <c r="D3" t="n">
-        <v>0.02216</v>
+        <v>0.02332</v>
       </c>
       <c r="E3" t="n">
-        <v>0.04191</v>
+        <v>0.03993</v>
       </c>
       <c r="F3" t="n">
-        <v>0.09195</v>
+        <v>0.09132999999999999</v>
       </c>
       <c r="G3" t="n">
-        <v>0.1793</v>
+        <v>0.1853</v>
       </c>
       <c r="H3" t="n">
-        <v>0.2535</v>
+        <v>0.2668</v>
       </c>
       <c r="I3" t="n">
-        <v>0.11</v>
+        <v>0.1116</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -808,16 +808,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.001274</v>
+        <v>0.0004896</v>
       </c>
       <c r="M3" t="n">
-        <v>0.03677</v>
+        <v>0.02699</v>
       </c>
       <c r="N3" t="n">
-        <v>0.1574</v>
+        <v>0.1317</v>
       </c>
       <c r="O3" t="n">
-        <v>0.02892</v>
+        <v>0.02264</v>
       </c>
     </row>
     <row r="4">
@@ -842,13 +842,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>3.089e-79</v>
+        <v>3.079e-79</v>
       </c>
       <c r="H4" t="n">
-        <v>4.211e-79</v>
+        <v>4.229e-79</v>
       </c>
       <c r="I4" t="n">
-        <v>1.025e-79</v>
+        <v>9.849e-80</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -860,13 +860,13 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>7.303e-16</v>
+        <v>7.577e-16</v>
       </c>
       <c r="N4" t="n">
-        <v>9.902e-16</v>
+        <v>9.755e-16</v>
       </c>
       <c r="O4" t="n">
-        <v>2.465e-16</v>
+        <v>2.389e-16</v>
       </c>
     </row>
     <row r="5">
@@ -891,13 +891,13 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.089e-79</v>
+        <v>3.079e-79</v>
       </c>
       <c r="H5" t="n">
-        <v>4.211e-79</v>
+        <v>4.229e-79</v>
       </c>
       <c r="I5" t="n">
-        <v>1.025e-79</v>
+        <v>9.849e-80</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -909,13 +909,13 @@
         <v>0</v>
       </c>
       <c r="M5" t="n">
-        <v>7.303e-16</v>
+        <v>7.577e-16</v>
       </c>
       <c r="N5" t="n">
-        <v>9.902e-16</v>
+        <v>9.755e-16</v>
       </c>
       <c r="O5" t="n">
-        <v>2.465e-16</v>
+        <v>2.389e-16</v>
       </c>
     </row>
     <row r="6">
@@ -940,13 +940,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>3.089e-79</v>
+        <v>3.079e-79</v>
       </c>
       <c r="H6" t="n">
-        <v>4.211e-79</v>
+        <v>4.229e-79</v>
       </c>
       <c r="I6" t="n">
-        <v>1.025e-79</v>
+        <v>9.849e-80</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -958,13 +958,13 @@
         <v>0</v>
       </c>
       <c r="M6" t="n">
-        <v>7.303e-16</v>
+        <v>7.577e-16</v>
       </c>
       <c r="N6" t="n">
-        <v>9.902e-16</v>
+        <v>9.755e-16</v>
       </c>
       <c r="O6" t="n">
-        <v>2.465e-16</v>
+        <v>2.389e-16</v>
       </c>
     </row>
     <row r="7">
@@ -989,13 +989,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>3.089e-79</v>
+        <v>3.079e-79</v>
       </c>
       <c r="H7" t="n">
-        <v>4.211e-79</v>
+        <v>4.229e-79</v>
       </c>
       <c r="I7" t="n">
-        <v>1.025e-79</v>
+        <v>9.849e-80</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1007,13 +1007,13 @@
         <v>0</v>
       </c>
       <c r="M7" t="n">
-        <v>7.303e-16</v>
+        <v>7.577e-16</v>
       </c>
       <c r="N7" t="n">
-        <v>9.902e-16</v>
+        <v>9.755e-16</v>
       </c>
       <c r="O7" t="n">
-        <v>2.465e-16</v>
+        <v>2.389e-16</v>
       </c>
     </row>
     <row r="8">
@@ -1038,13 +1038,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.089e-79</v>
+        <v>3.079e-79</v>
       </c>
       <c r="H8" t="n">
-        <v>4.211e-79</v>
+        <v>4.229e-79</v>
       </c>
       <c r="I8" t="n">
-        <v>1.025e-79</v>
+        <v>9.849e-80</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1056,13 +1056,13 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>7.303e-16</v>
+        <v>7.577e-16</v>
       </c>
       <c r="N8" t="n">
-        <v>9.902e-16</v>
+        <v>9.755e-16</v>
       </c>
       <c r="O8" t="n">
-        <v>2.465e-16</v>
+        <v>2.389e-16</v>
       </c>
     </row>
     <row r="9">
@@ -1087,13 +1087,13 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>3.089e-79</v>
+        <v>3.079e-79</v>
       </c>
       <c r="H9" t="n">
-        <v>4.211e-79</v>
+        <v>4.229e-79</v>
       </c>
       <c r="I9" t="n">
-        <v>1.025e-79</v>
+        <v>9.849e-80</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1105,13 +1105,13 @@
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>7.303e-16</v>
+        <v>7.577e-16</v>
       </c>
       <c r="N9" t="n">
-        <v>9.902e-16</v>
+        <v>9.755e-16</v>
       </c>
       <c r="O9" t="n">
-        <v>2.465e-16</v>
+        <v>2.389e-16</v>
       </c>
     </row>
     <row r="10">
@@ -1136,13 +1136,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>3.089e-79</v>
+        <v>3.079e-79</v>
       </c>
       <c r="H10" t="n">
-        <v>4.211e-79</v>
+        <v>4.229e-79</v>
       </c>
       <c r="I10" t="n">
-        <v>1.025e-79</v>
+        <v>9.849e-80</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1154,13 +1154,13 @@
         <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>7.303e-16</v>
+        <v>7.577e-16</v>
       </c>
       <c r="N10" t="n">
-        <v>9.902e-16</v>
+        <v>9.755e-16</v>
       </c>
       <c r="O10" t="n">
-        <v>2.465e-16</v>
+        <v>2.389e-16</v>
       </c>
     </row>
     <row r="11">
@@ -1176,13 +1176,13 @@
         <v>34.45</v>
       </c>
       <c r="D11" t="n">
-        <v>0.3075</v>
+        <v>0.213</v>
       </c>
       <c r="E11" t="n">
-        <v>0.639</v>
+        <v>0.5994</v>
       </c>
       <c r="F11" t="n">
-        <v>0.9496</v>
+        <v>0.9484</v>
       </c>
       <c r="G11" t="n">
         <v>1</v>
@@ -1191,25 +1191,25 @@
         <v>1</v>
       </c>
       <c r="I11" t="n">
-        <v>0.839</v>
+        <v>0.8288</v>
       </c>
       <c r="J11" t="n">
-        <v>0.2539</v>
+        <v>0.2536</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2868</v>
+        <v>0.283</v>
       </c>
       <c r="L11" t="n">
-        <v>0.3345</v>
+        <v>0.3307</v>
       </c>
       <c r="M11" t="n">
-        <v>0.3841</v>
+        <v>0.3848</v>
       </c>
       <c r="N11" t="n">
-        <v>0.4189</v>
+        <v>0.4231</v>
       </c>
       <c r="O11" t="n">
-        <v>0.3351</v>
+        <v>0.3334</v>
       </c>
     </row>
     <row r="12">
@@ -1234,13 +1234,13 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>3.089e-79</v>
+        <v>3.079e-79</v>
       </c>
       <c r="H12" t="n">
-        <v>4.211e-79</v>
+        <v>4.229e-79</v>
       </c>
       <c r="I12" t="n">
-        <v>1.025e-79</v>
+        <v>9.849e-80</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1252,13 +1252,13 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>7.303e-16</v>
+        <v>7.577e-16</v>
       </c>
       <c r="N12" t="n">
-        <v>9.902e-16</v>
+        <v>9.755e-16</v>
       </c>
       <c r="O12" t="n">
-        <v>2.465e-16</v>
+        <v>2.389e-16</v>
       </c>
     </row>
     <row r="13">
@@ -1283,13 +1283,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>3.089e-79</v>
+        <v>3.079e-79</v>
       </c>
       <c r="H13" t="n">
-        <v>4.211e-79</v>
+        <v>4.229e-79</v>
       </c>
       <c r="I13" t="n">
-        <v>1.025e-79</v>
+        <v>9.849e-80</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1301,13 +1301,13 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>7.303e-16</v>
+        <v>7.577e-16</v>
       </c>
       <c r="N13" t="n">
-        <v>9.902e-16</v>
+        <v>9.755e-16</v>
       </c>
       <c r="O13" t="n">
-        <v>2.465e-16</v>
+        <v>2.389e-16</v>
       </c>
     </row>
     <row r="14">
@@ -1332,13 +1332,13 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>3.089e-79</v>
+        <v>3.079e-79</v>
       </c>
       <c r="H14" t="n">
-        <v>4.211e-79</v>
+        <v>4.229e-79</v>
       </c>
       <c r="I14" t="n">
-        <v>1.025e-79</v>
+        <v>9.849e-80</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>7.303e-16</v>
+        <v>7.577e-16</v>
       </c>
       <c r="N14" t="n">
-        <v>9.902e-16</v>
+        <v>9.755e-16</v>
       </c>
       <c r="O14" t="n">
-        <v>2.465e-16</v>
+        <v>2.389e-16</v>
       </c>
     </row>
     <row r="15">
@@ -1381,13 +1381,13 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>3.089e-79</v>
+        <v>3.079e-79</v>
       </c>
       <c r="H15" t="n">
-        <v>4.211e-79</v>
+        <v>4.229e-79</v>
       </c>
       <c r="I15" t="n">
-        <v>1.025e-79</v>
+        <v>9.849e-80</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1399,13 +1399,13 @@
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>7.303e-16</v>
+        <v>7.577e-16</v>
       </c>
       <c r="N15" t="n">
-        <v>9.902e-16</v>
+        <v>9.755e-16</v>
       </c>
       <c r="O15" t="n">
-        <v>2.465e-16</v>
+        <v>2.389e-16</v>
       </c>
     </row>
     <row r="16">
@@ -1430,13 +1430,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>3.089e-79</v>
+        <v>3.079e-79</v>
       </c>
       <c r="H16" t="n">
-        <v>4.211e-79</v>
+        <v>4.229e-79</v>
       </c>
       <c r="I16" t="n">
-        <v>1.025e-79</v>
+        <v>9.849e-80</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1448,13 +1448,13 @@
         <v>0</v>
       </c>
       <c r="M16" t="n">
-        <v>7.303e-16</v>
+        <v>7.577e-16</v>
       </c>
       <c r="N16" t="n">
-        <v>9.902e-16</v>
+        <v>9.755e-16</v>
       </c>
       <c r="O16" t="n">
-        <v>2.465e-16</v>
+        <v>2.389e-16</v>
       </c>
     </row>
     <row r="17">
@@ -1479,13 +1479,13 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>3.089e-79</v>
+        <v>3.079e-79</v>
       </c>
       <c r="H17" t="n">
-        <v>4.211e-79</v>
+        <v>4.229e-79</v>
       </c>
       <c r="I17" t="n">
-        <v>1.025e-79</v>
+        <v>9.849e-80</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1497,13 +1497,13 @@
         <v>0</v>
       </c>
       <c r="M17" t="n">
-        <v>7.303e-16</v>
+        <v>7.577e-16</v>
       </c>
       <c r="N17" t="n">
-        <v>9.902e-16</v>
+        <v>9.755e-16</v>
       </c>
       <c r="O17" t="n">
-        <v>2.465e-16</v>
+        <v>2.389e-16</v>
       </c>
     </row>
     <row r="18">
@@ -1528,13 +1528,13 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>3.089e-79</v>
+        <v>3.079e-79</v>
       </c>
       <c r="H18" t="n">
-        <v>4.211e-79</v>
+        <v>4.229e-79</v>
       </c>
       <c r="I18" t="n">
-        <v>1.025e-79</v>
+        <v>9.849e-80</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1546,13 +1546,13 @@
         <v>0</v>
       </c>
       <c r="M18" t="n">
-        <v>7.303e-16</v>
+        <v>7.577e-16</v>
       </c>
       <c r="N18" t="n">
-        <v>9.902e-16</v>
+        <v>9.755e-16</v>
       </c>
       <c r="O18" t="n">
-        <v>2.465e-16</v>
+        <v>2.389e-16</v>
       </c>
     </row>
     <row r="19">
@@ -1577,13 +1577,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>3.089e-79</v>
+        <v>3.079e-79</v>
       </c>
       <c r="H19" t="n">
-        <v>4.211e-79</v>
+        <v>4.229e-79</v>
       </c>
       <c r="I19" t="n">
-        <v>1.025e-79</v>
+        <v>9.849e-80</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -1595,13 +1595,13 @@
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>7.303e-16</v>
+        <v>7.577e-16</v>
       </c>
       <c r="N19" t="n">
-        <v>9.902e-16</v>
+        <v>9.755e-16</v>
       </c>
       <c r="O19" t="n">
-        <v>2.465e-16</v>
+        <v>2.389e-16</v>
       </c>
     </row>
     <row r="20">
@@ -1626,13 +1626,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>3.089e-79</v>
+        <v>3.079e-79</v>
       </c>
       <c r="H20" t="n">
-        <v>4.211e-79</v>
+        <v>4.229e-79</v>
       </c>
       <c r="I20" t="n">
-        <v>1.025e-79</v>
+        <v>9.849e-80</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -1644,13 +1644,13 @@
         <v>0</v>
       </c>
       <c r="M20" t="n">
-        <v>7.303e-16</v>
+        <v>7.577e-16</v>
       </c>
       <c r="N20" t="n">
-        <v>9.902e-16</v>
+        <v>9.755e-16</v>
       </c>
       <c r="O20" t="n">
-        <v>2.465e-16</v>
+        <v>2.389e-16</v>
       </c>
     </row>
     <row r="21">
@@ -1675,13 +1675,13 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>3.089e-79</v>
+        <v>3.079e-79</v>
       </c>
       <c r="H21" t="n">
-        <v>4.211e-79</v>
+        <v>4.229e-79</v>
       </c>
       <c r="I21" t="n">
-        <v>1.025e-79</v>
+        <v>9.849e-80</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -1693,13 +1693,13 @@
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>7.303e-16</v>
+        <v>7.577e-16</v>
       </c>
       <c r="N21" t="n">
-        <v>9.902e-16</v>
+        <v>9.755e-16</v>
       </c>
       <c r="O21" t="n">
-        <v>2.465e-16</v>
+        <v>2.389e-16</v>
       </c>
     </row>
     <row r="22">
@@ -1724,13 +1724,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>3.089e-79</v>
+        <v>3.079e-79</v>
       </c>
       <c r="H22" t="n">
-        <v>4.211e-79</v>
+        <v>4.229e-79</v>
       </c>
       <c r="I22" t="n">
-        <v>1.025e-79</v>
+        <v>9.849e-80</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -1742,13 +1742,13 @@
         <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>7.303e-16</v>
+        <v>7.577e-16</v>
       </c>
       <c r="N22" t="n">
-        <v>9.902e-16</v>
+        <v>9.755e-16</v>
       </c>
       <c r="O22" t="n">
-        <v>2.465e-16</v>
+        <v>2.389e-16</v>
       </c>
     </row>
   </sheetData>
@@ -1918,19 +1918,19 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0.0001867</v>
+        <v>0.000319</v>
       </c>
       <c r="F2" t="n">
-        <v>0.003424</v>
+        <v>0.003851</v>
       </c>
       <c r="G2" t="n">
-        <v>0.01785</v>
+        <v>0.02089</v>
       </c>
       <c r="H2" t="n">
-        <v>0.04279</v>
+        <v>0.04521</v>
       </c>
       <c r="I2" t="n">
-        <v>0.01004</v>
+        <v>0.0109</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -1939,16 +1939,16 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0.0003452</v>
+        <v>0.0003498</v>
       </c>
       <c r="M2" t="n">
-        <v>0.001412</v>
+        <v>0.00167</v>
       </c>
       <c r="N2" t="n">
-        <v>0.00488</v>
+        <v>0.005483</v>
       </c>
       <c r="O2" t="n">
-        <v>0.001033</v>
+        <v>0.001137</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -1957,34 +1957,34 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>3.812e-05</v>
+        <v>4.655e-05</v>
       </c>
       <c r="S2" t="n">
-        <v>0.0002066</v>
+        <v>0.0002316</v>
       </c>
       <c r="T2" t="n">
-        <v>0.0007555</v>
+        <v>0.0009209</v>
       </c>
       <c r="U2" t="n">
-        <v>0.0001694</v>
+        <v>0.0001869</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.0452</v>
+        <v>0.04761</v>
       </c>
       <c r="X2" t="n">
-        <v>0.1789</v>
+        <v>0.1879</v>
       </c>
       <c r="Y2" t="n">
-        <v>0.3913</v>
+        <v>0.4049</v>
       </c>
       <c r="Z2" t="n">
-        <v>0.525</v>
+        <v>0.5579</v>
       </c>
       <c r="AA2" t="n">
-        <v>0.2143</v>
+        <v>0.2231</v>
       </c>
     </row>
     <row r="3">
@@ -2003,19 +2003,19 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0.0002138</v>
+        <v>0.0003275</v>
       </c>
       <c r="F3" t="n">
-        <v>0.003409</v>
+        <v>0.003825</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01741</v>
+        <v>0.02027</v>
       </c>
       <c r="H3" t="n">
-        <v>0.04095</v>
+        <v>0.04351</v>
       </c>
       <c r="I3" t="n">
-        <v>0.009675</v>
+        <v>0.01069</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -2024,16 +2024,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0.0009182</v>
+        <v>0.0009644</v>
       </c>
       <c r="M3" t="n">
-        <v>0.004369</v>
+        <v>0.005344</v>
       </c>
       <c r="N3" t="n">
-        <v>0.01302</v>
+        <v>0.01399</v>
       </c>
       <c r="O3" t="n">
-        <v>0.002837</v>
+        <v>0.003127</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -2042,34 +2042,34 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>7.795000000000001e-06</v>
+        <v>1.012e-05</v>
       </c>
       <c r="S3" t="n">
-        <v>6.721e-05</v>
+        <v>7.36e-05</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0002144</v>
+        <v>0.0002758</v>
       </c>
       <c r="U3" t="n">
-        <v>5.103e-05</v>
+        <v>5.671e-05</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>0.06044</v>
+        <v>0.06861</v>
       </c>
       <c r="X3" t="n">
-        <v>0.2487</v>
+        <v>0.2601</v>
       </c>
       <c r="Y3" t="n">
-        <v>0.5111</v>
+        <v>0.5303</v>
       </c>
       <c r="Z3" t="n">
-        <v>0.678</v>
+        <v>0.7004</v>
       </c>
       <c r="AA3" t="n">
-        <v>0.2831</v>
+        <v>0.2946</v>
       </c>
     </row>
     <row r="4">
@@ -2088,19 +2088,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0001927</v>
+        <v>0.0002786</v>
       </c>
       <c r="F4" t="n">
-        <v>0.003266</v>
+        <v>0.003647</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0164</v>
+        <v>0.01873</v>
       </c>
       <c r="H4" t="n">
-        <v>0.03889</v>
+        <v>0.03961</v>
       </c>
       <c r="I4" t="n">
-        <v>0.00919</v>
+        <v>0.009774</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -2109,16 +2109,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0.0003202</v>
+        <v>0.0003123</v>
       </c>
       <c r="M4" t="n">
-        <v>0.001311</v>
+        <v>0.00147</v>
       </c>
       <c r="N4" t="n">
-        <v>0.004438</v>
+        <v>0.004746</v>
       </c>
       <c r="O4" t="n">
-        <v>0.0009383</v>
+        <v>0.0009944999999999999</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -2127,34 +2127,34 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>3.498e-05</v>
+        <v>4.075e-05</v>
       </c>
       <c r="S4" t="n">
-        <v>0.0001834</v>
+        <v>0.0001937</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0006933</v>
+        <v>0.0007704</v>
       </c>
       <c r="U4" t="n">
-        <v>0.0001516</v>
+        <v>0.000158</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>0.04363</v>
+        <v>0.04584</v>
       </c>
       <c r="X4" t="n">
-        <v>0.1689</v>
+        <v>0.1775</v>
       </c>
       <c r="Y4" t="n">
-        <v>0.3678</v>
+        <v>0.3816</v>
       </c>
       <c r="Z4" t="n">
-        <v>0.4977</v>
+        <v>0.53</v>
       </c>
       <c r="AA4" t="n">
-        <v>0.2024</v>
+        <v>0.2107</v>
       </c>
     </row>
     <row r="5">
@@ -2173,19 +2173,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0.0002003</v>
+        <v>0.0003183</v>
       </c>
       <c r="F5" t="n">
-        <v>0.003367</v>
+        <v>0.003855</v>
       </c>
       <c r="G5" t="n">
-        <v>0.01792</v>
+        <v>0.02089</v>
       </c>
       <c r="H5" t="n">
-        <v>0.04366</v>
+        <v>0.04534</v>
       </c>
       <c r="I5" t="n">
-        <v>0.01018</v>
+        <v>0.01093</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -2194,16 +2194,16 @@
         <v>0</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0003561</v>
+        <v>0.0003464</v>
       </c>
       <c r="M5" t="n">
-        <v>0.001483</v>
+        <v>0.001668</v>
       </c>
       <c r="N5" t="n">
-        <v>0.005315</v>
+        <v>0.005346</v>
       </c>
       <c r="O5" t="n">
-        <v>0.001105</v>
+        <v>0.001112</v>
       </c>
       <c r="P5" t="n">
         <v>0</v>
@@ -2212,34 +2212,34 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>3.867e-05</v>
+        <v>4.701e-05</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0002198</v>
+        <v>0.0002259</v>
       </c>
       <c r="T5" t="n">
-        <v>0.0008688</v>
+        <v>0.0009056</v>
       </c>
       <c r="U5" t="n">
-        <v>0.0001886</v>
+        <v>0.0001809</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.04513</v>
+        <v>0.0475</v>
       </c>
       <c r="X5" t="n">
-        <v>0.1786</v>
+        <v>0.1877</v>
       </c>
       <c r="Y5" t="n">
-        <v>0.3908</v>
+        <v>0.4052</v>
       </c>
       <c r="Z5" t="n">
-        <v>0.5243</v>
+        <v>0.5581</v>
       </c>
       <c r="AA5" t="n">
-        <v>0.2141</v>
+        <v>0.223</v>
       </c>
     </row>
     <row r="6">
@@ -2258,19 +2258,19 @@
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>0.0002198</v>
+        <v>0.0002923</v>
       </c>
       <c r="F6" t="n">
-        <v>0.003305</v>
+        <v>0.003677</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0165</v>
+        <v>0.01874</v>
       </c>
       <c r="H6" t="n">
-        <v>0.03874</v>
+        <v>0.03963</v>
       </c>
       <c r="I6" t="n">
-        <v>0.009207</v>
+        <v>0.009788</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -2279,16 +2279,16 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>0.0008811</v>
+        <v>0.0008814</v>
       </c>
       <c r="M6" t="n">
-        <v>0.00424</v>
+        <v>0.004858</v>
       </c>
       <c r="N6" t="n">
-        <v>0.01235</v>
+        <v>0.01248</v>
       </c>
       <c r="O6" t="n">
-        <v>0.002658</v>
+        <v>0.002814</v>
       </c>
       <c r="P6" t="n">
         <v>0</v>
@@ -2297,34 +2297,34 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>7.52e-06</v>
+        <v>8.649e-06</v>
       </c>
       <c r="S6" t="n">
-        <v>6.355999999999999e-05</v>
+        <v>6.358e-05</v>
       </c>
       <c r="T6" t="n">
-        <v>0.0001981</v>
+        <v>0.0002305</v>
       </c>
       <c r="U6" t="n">
-        <v>4.817e-05</v>
+        <v>4.842e-05</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0.05868</v>
+        <v>0.06542000000000001</v>
       </c>
       <c r="X6" t="n">
-        <v>0.2356</v>
+        <v>0.2447</v>
       </c>
       <c r="Y6" t="n">
-        <v>0.4863</v>
+        <v>0.5032</v>
       </c>
       <c r="Z6" t="n">
-        <v>0.6458</v>
+        <v>0.6693</v>
       </c>
       <c r="AA6" t="n">
-        <v>0.2693</v>
+        <v>0.2794</v>
       </c>
     </row>
     <row r="7">
@@ -2343,19 +2343,19 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0.0002086</v>
+        <v>0.0002958</v>
       </c>
       <c r="F7" t="n">
-        <v>0.003259</v>
+        <v>0.00371</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0162</v>
+        <v>0.01905</v>
       </c>
       <c r="H7" t="n">
-        <v>0.03799</v>
+        <v>0.03995</v>
       </c>
       <c r="I7" t="n">
-        <v>0.009042</v>
+        <v>0.009962</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -2364,16 +2364,16 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0008625</v>
+        <v>0.0008886</v>
       </c>
       <c r="M7" t="n">
-        <v>0.004138</v>
+        <v>0.004944</v>
       </c>
       <c r="N7" t="n">
-        <v>0.01211</v>
+        <v>0.01276</v>
       </c>
       <c r="O7" t="n">
-        <v>0.002607</v>
+        <v>0.00287</v>
       </c>
       <c r="P7" t="n">
         <v>0</v>
@@ -2382,34 +2382,34 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>7.469e-06</v>
+        <v>8.841999999999999e-06</v>
       </c>
       <c r="S7" t="n">
-        <v>6.079e-05</v>
+        <v>6.71e-05</v>
       </c>
       <c r="T7" t="n">
-        <v>0.0001906</v>
+        <v>0.0002347</v>
       </c>
       <c r="U7" t="n">
-        <v>4.618e-05</v>
+        <v>5.097e-05</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0.05844</v>
+        <v>0.06571</v>
       </c>
       <c r="X7" t="n">
-        <v>0.235</v>
+        <v>0.2448</v>
       </c>
       <c r="Y7" t="n">
-        <v>0.4854</v>
+        <v>0.5037</v>
       </c>
       <c r="Z7" t="n">
-        <v>0.645</v>
+        <v>0.6698</v>
       </c>
       <c r="AA7" t="n">
-        <v>0.2687</v>
+        <v>0.2797</v>
       </c>
     </row>
     <row r="8">
@@ -2428,19 +2428,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0.0001288</v>
+        <v>0.0002296</v>
       </c>
       <c r="F8" t="n">
-        <v>0.002911</v>
+        <v>0.003098</v>
       </c>
       <c r="G8" t="n">
-        <v>0.01421</v>
+        <v>0.01584</v>
       </c>
       <c r="H8" t="n">
-        <v>0.03398</v>
+        <v>0.03423</v>
       </c>
       <c r="I8" t="n">
-        <v>0.007983000000000001</v>
+        <v>0.008446</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -2449,16 +2449,16 @@
         <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0007542</v>
+        <v>0.0007444</v>
       </c>
       <c r="M8" t="n">
-        <v>0.003534</v>
+        <v>0.003982</v>
       </c>
       <c r="N8" t="n">
-        <v>0.01017</v>
+        <v>0.01048</v>
       </c>
       <c r="O8" t="n">
-        <v>0.002239</v>
+        <v>0.002372</v>
       </c>
       <c r="P8" t="n">
         <v>0</v>
@@ -2467,34 +2467,34 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>5.845e-06</v>
+        <v>5.5e-06</v>
       </c>
       <c r="S8" t="n">
-        <v>5.03e-05</v>
+        <v>5.047e-05</v>
       </c>
       <c r="T8" t="n">
-        <v>0.0001458</v>
+        <v>0.0001612</v>
       </c>
       <c r="U8" t="n">
-        <v>3.674e-05</v>
+        <v>3.709e-05</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0.05766</v>
+        <v>0.06354</v>
       </c>
       <c r="X8" t="n">
-        <v>0.2294</v>
+        <v>0.2339</v>
       </c>
       <c r="Y8" t="n">
-        <v>0.4811</v>
+        <v>0.4936</v>
       </c>
       <c r="Z8" t="n">
-        <v>0.6381</v>
+        <v>0.6573</v>
       </c>
       <c r="AA8" t="n">
-        <v>0.2623</v>
+        <v>0.2724</v>
       </c>
     </row>
     <row r="9">
@@ -2513,19 +2513,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0.0001202</v>
+        <v>0.0002335</v>
       </c>
       <c r="F9" t="n">
-        <v>0.002874</v>
+        <v>0.003146</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01418</v>
+        <v>0.01589</v>
       </c>
       <c r="H9" t="n">
-        <v>0.03431</v>
+        <v>0.03363</v>
       </c>
       <c r="I9" t="n">
-        <v>0.008012</v>
+        <v>0.008415000000000001</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -2534,16 +2534,16 @@
         <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0.0002626</v>
+        <v>0.0002553</v>
       </c>
       <c r="M9" t="n">
-        <v>0.001089</v>
+        <v>0.001154</v>
       </c>
       <c r="N9" t="n">
-        <v>0.003606</v>
+        <v>0.003782</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0007844</v>
+        <v>0.0007957</v>
       </c>
       <c r="P9" t="n">
         <v>0</v>
@@ -2552,34 +2552,34 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>2.66e-05</v>
+        <v>3.235e-05</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0001523</v>
+        <v>0.0001575</v>
       </c>
       <c r="T9" t="n">
-        <v>0.0005236</v>
+        <v>0.0005463</v>
       </c>
       <c r="U9" t="n">
-        <v>0.000123</v>
+        <v>0.0001201</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0.04071</v>
+        <v>0.04406</v>
       </c>
       <c r="X9" t="n">
-        <v>0.1613</v>
+        <v>0.1693</v>
       </c>
       <c r="Y9" t="n">
-        <v>0.3519</v>
+        <v>0.3693</v>
       </c>
       <c r="Z9" t="n">
-        <v>0.4855</v>
+        <v>0.5092</v>
       </c>
       <c r="AA9" t="n">
-        <v>0.1951</v>
+        <v>0.2029</v>
       </c>
     </row>
     <row r="10">
@@ -2598,19 +2598,19 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0.0002125</v>
+        <v>0.0003301</v>
       </c>
       <c r="F10" t="n">
-        <v>0.003459</v>
+        <v>0.003791</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01796</v>
+        <v>0.02015</v>
       </c>
       <c r="H10" t="n">
-        <v>0.043</v>
+        <v>0.04327</v>
       </c>
       <c r="I10" t="n">
-        <v>0.01008</v>
+        <v>0.01062</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -2619,16 +2619,16 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0009345999999999999</v>
+        <v>0.0009556</v>
       </c>
       <c r="M10" t="n">
-        <v>0.004589</v>
+        <v>0.005288</v>
       </c>
       <c r="N10" t="n">
-        <v>0.01389</v>
+        <v>0.01386</v>
       </c>
       <c r="O10" t="n">
-        <v>0.002975</v>
+        <v>0.003096</v>
       </c>
       <c r="P10" t="n">
         <v>0</v>
@@ -2637,34 +2637,34 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>8.793e-06</v>
+        <v>1e-05</v>
       </c>
       <c r="S10" t="n">
-        <v>7.653e-05</v>
+        <v>7.309000000000001e-05</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0002387</v>
+        <v>0.0002729</v>
       </c>
       <c r="U10" t="n">
-        <v>5.798e-05</v>
+        <v>5.614e-05</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0.06068</v>
+        <v>0.06865</v>
       </c>
       <c r="X10" t="n">
-        <v>0.2498</v>
+        <v>0.2601</v>
       </c>
       <c r="Y10" t="n">
-        <v>0.512</v>
+        <v>0.5305</v>
       </c>
       <c r="Z10" t="n">
-        <v>0.6792</v>
+        <v>0.7007</v>
       </c>
       <c r="AA10" t="n">
-        <v>0.2836</v>
+        <v>0.2946</v>
       </c>
     </row>
     <row r="11">
@@ -2683,19 +2683,19 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0002093</v>
+        <v>0.0003333</v>
       </c>
       <c r="F11" t="n">
-        <v>0.003382</v>
+        <v>0.003846</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01788</v>
+        <v>0.02043</v>
       </c>
       <c r="H11" t="n">
-        <v>0.04334</v>
+        <v>0.04398</v>
       </c>
       <c r="I11" t="n">
-        <v>0.01011</v>
+        <v>0.01076</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -2704,16 +2704,16 @@
         <v>0</v>
       </c>
       <c r="L11" t="n">
-        <v>0.000934</v>
+        <v>0.0009655</v>
       </c>
       <c r="M11" t="n">
-        <v>0.00462</v>
+        <v>0.005389</v>
       </c>
       <c r="N11" t="n">
-        <v>0.01413</v>
+        <v>0.01411</v>
       </c>
       <c r="O11" t="n">
-        <v>0.003003</v>
+        <v>0.003151</v>
       </c>
       <c r="P11" t="n">
         <v>0</v>
@@ -2722,34 +2722,34 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>8.824000000000001e-06</v>
+        <v>1.049e-05</v>
       </c>
       <c r="S11" t="n">
-        <v>7.973e-05</v>
+        <v>7.558e-05</v>
       </c>
       <c r="T11" t="n">
-        <v>0.000242</v>
+        <v>0.0002821</v>
       </c>
       <c r="U11" t="n">
-        <v>5.948e-05</v>
+        <v>5.808e-05</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0.06027</v>
+        <v>0.06884999999999999</v>
       </c>
       <c r="X11" t="n">
-        <v>0.2494</v>
+        <v>0.2605</v>
       </c>
       <c r="Y11" t="n">
-        <v>0.5118</v>
+        <v>0.5313</v>
       </c>
       <c r="Z11" t="n">
-        <v>0.6786</v>
+        <v>0.7014</v>
       </c>
       <c r="AA11" t="n">
-        <v>0.2833</v>
+        <v>0.2951</v>
       </c>
     </row>
     <row r="12">
@@ -2768,19 +2768,19 @@
         <v>0</v>
       </c>
       <c r="E12" t="n">
-        <v>0.0002135</v>
+        <v>0.0002947</v>
       </c>
       <c r="F12" t="n">
-        <v>0.003297</v>
+        <v>0.003699</v>
       </c>
       <c r="G12" t="n">
-        <v>0.01647</v>
+        <v>0.0193</v>
       </c>
       <c r="H12" t="n">
-        <v>0.03873</v>
+        <v>0.04009</v>
       </c>
       <c r="I12" t="n">
-        <v>0.009194000000000001</v>
+        <v>0.01</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -2789,16 +2789,16 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0008787000000000001</v>
+        <v>0.0008942000000000001</v>
       </c>
       <c r="M12" t="n">
-        <v>0.004237</v>
+        <v>0.004994</v>
       </c>
       <c r="N12" t="n">
-        <v>0.01236</v>
+        <v>0.01293</v>
       </c>
       <c r="O12" t="n">
-        <v>0.002658</v>
+        <v>0.0029</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -2807,34 +2807,34 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>7.529e-06</v>
+        <v>8.623e-06</v>
       </c>
       <c r="S12" t="n">
-        <v>6.379e-05</v>
+        <v>6.79e-05</v>
       </c>
       <c r="T12" t="n">
-        <v>0.0001979</v>
+        <v>0.0002385</v>
       </c>
       <c r="U12" t="n">
-        <v>4.821e-05</v>
+        <v>5.207e-05</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
       </c>
       <c r="W12" t="n">
-        <v>0.05872</v>
+        <v>0.06630999999999999</v>
       </c>
       <c r="X12" t="n">
-        <v>0.2357</v>
+        <v>0.2451</v>
       </c>
       <c r="Y12" t="n">
-        <v>0.4867</v>
+        <v>0.5046</v>
       </c>
       <c r="Z12" t="n">
-        <v>0.6461</v>
+        <v>0.6707</v>
       </c>
       <c r="AA12" t="n">
-        <v>0.2694</v>
+        <v>0.2801</v>
       </c>
     </row>
     <row r="13">
@@ -2853,19 +2853,19 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>1.924e-05</v>
+        <v>0.0001392</v>
       </c>
       <c r="F13" t="n">
-        <v>0.002442</v>
+        <v>0.002729</v>
       </c>
       <c r="G13" t="n">
-        <v>0.01255</v>
+        <v>0.01465</v>
       </c>
       <c r="H13" t="n">
-        <v>0.03155</v>
+        <v>0.03185</v>
       </c>
       <c r="I13" t="n">
-        <v>0.007244</v>
+        <v>0.007732</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -2874,16 +2874,16 @@
         <v>0</v>
       </c>
       <c r="L13" t="n">
-        <v>0.0006083</v>
+        <v>0.0006089</v>
       </c>
       <c r="M13" t="n">
-        <v>0.002802</v>
+        <v>0.003277</v>
       </c>
       <c r="N13" t="n">
-        <v>0.009101</v>
+        <v>0.009202999999999999</v>
       </c>
       <c r="O13" t="n">
-        <v>0.001904</v>
+        <v>0.002015</v>
       </c>
       <c r="P13" t="n">
         <v>0</v>
@@ -2892,34 +2892,34 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>8.000000000000001e-05</v>
+        <v>8.936e-05</v>
       </c>
       <c r="S13" t="n">
-        <v>0.0003791</v>
+        <v>0.00041</v>
       </c>
       <c r="T13" t="n">
-        <v>0.00142</v>
+        <v>0.001528</v>
       </c>
       <c r="U13" t="n">
-        <v>0.0003047</v>
+        <v>0.0003157</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0.02582</v>
+        <v>0.02705</v>
       </c>
       <c r="X13" t="n">
-        <v>0.1112</v>
+        <v>0.121</v>
       </c>
       <c r="Y13" t="n">
-        <v>0.2723</v>
+        <v>0.2835</v>
       </c>
       <c r="Z13" t="n">
-        <v>0.384</v>
+        <v>0.4143</v>
       </c>
       <c r="AA13" t="n">
-        <v>0.1457</v>
+        <v>0.1531</v>
       </c>
     </row>
     <row r="14">
@@ -2938,19 +2938,19 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>2.399e-05</v>
+        <v>0.000152</v>
       </c>
       <c r="F14" t="n">
-        <v>0.002452</v>
+        <v>0.0027</v>
       </c>
       <c r="G14" t="n">
-        <v>0.01253</v>
+        <v>0.01492</v>
       </c>
       <c r="H14" t="n">
-        <v>0.03161</v>
+        <v>0.03261</v>
       </c>
       <c r="I14" t="n">
-        <v>0.007251</v>
+        <v>0.007933000000000001</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -2959,16 +2959,16 @@
         <v>0</v>
       </c>
       <c r="L14" t="n">
-        <v>0.00061</v>
+        <v>0.0006182</v>
       </c>
       <c r="M14" t="n">
-        <v>0.002809</v>
+        <v>0.003365</v>
       </c>
       <c r="N14" t="n">
-        <v>0.009035</v>
+        <v>0.009557</v>
       </c>
       <c r="O14" t="n">
-        <v>0.001901</v>
+        <v>0.002087</v>
       </c>
       <c r="P14" t="n">
         <v>0</v>
@@ -2977,34 +2977,34 @@
         <v>0</v>
       </c>
       <c r="R14" t="n">
-        <v>8.021000000000001e-05</v>
+        <v>8.92e-05</v>
       </c>
       <c r="S14" t="n">
-        <v>0.0003773</v>
+        <v>0.0004302</v>
       </c>
       <c r="T14" t="n">
-        <v>0.00142</v>
+        <v>0.001581</v>
       </c>
       <c r="U14" t="n">
-        <v>0.000303</v>
+        <v>0.0003329</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0.02602</v>
+        <v>0.02695</v>
       </c>
       <c r="X14" t="n">
-        <v>0.1116</v>
+        <v>0.1204</v>
       </c>
       <c r="Y14" t="n">
-        <v>0.273</v>
+        <v>0.2834</v>
       </c>
       <c r="Z14" t="n">
-        <v>0.3845</v>
+        <v>0.4141</v>
       </c>
       <c r="AA14" t="n">
-        <v>0.1461</v>
+        <v>0.1528</v>
       </c>
     </row>
     <row r="15">
@@ -3023,19 +3023,19 @@
         <v>0</v>
       </c>
       <c r="E15" t="n">
-        <v>2.398e-05</v>
+        <v>0.0001507</v>
       </c>
       <c r="F15" t="n">
-        <v>0.002439</v>
+        <v>0.002701</v>
       </c>
       <c r="G15" t="n">
-        <v>0.01212</v>
+        <v>0.01486</v>
       </c>
       <c r="H15" t="n">
-        <v>0.02995</v>
+        <v>0.03276</v>
       </c>
       <c r="I15" t="n">
-        <v>0.007007</v>
+        <v>0.007951</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -3044,16 +3044,16 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0006144</v>
+        <v>0.0006200999999999999</v>
       </c>
       <c r="M15" t="n">
-        <v>0.002757</v>
+        <v>0.003365</v>
       </c>
       <c r="N15" t="n">
-        <v>0.008506</v>
+        <v>0.009624000000000001</v>
       </c>
       <c r="O15" t="n">
-        <v>0.001808</v>
+        <v>0.002097</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -3062,34 +3062,34 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>7.881e-05</v>
+        <v>8.871e-05</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0003516</v>
+        <v>0.0004251</v>
       </c>
       <c r="T15" t="n">
-        <v>0.001309</v>
+        <v>0.001581</v>
       </c>
       <c r="U15" t="n">
-        <v>0.0002795</v>
+        <v>0.0003366</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
       </c>
       <c r="W15" t="n">
-        <v>0.02594</v>
+        <v>0.02699</v>
       </c>
       <c r="X15" t="n">
-        <v>0.1114</v>
+        <v>0.1207</v>
       </c>
       <c r="Y15" t="n">
-        <v>0.2725</v>
+        <v>0.283</v>
       </c>
       <c r="Z15" t="n">
-        <v>0.384</v>
+        <v>0.4137</v>
       </c>
       <c r="AA15" t="n">
-        <v>0.1458</v>
+        <v>0.1528</v>
       </c>
     </row>
     <row r="16">
@@ -3108,19 +3108,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>3.35e-06</v>
+        <v>0.0001117</v>
       </c>
       <c r="F16" t="n">
-        <v>0.002131</v>
+        <v>0.002362</v>
       </c>
       <c r="G16" t="n">
-        <v>0.01068</v>
+        <v>0.01195</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02719</v>
+        <v>0.02679</v>
       </c>
       <c r="I16" t="n">
-        <v>0.006212</v>
+        <v>0.006532</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -3129,16 +3129,16 @@
         <v>0</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0005130999999999999</v>
+        <v>0.0005224</v>
       </c>
       <c r="M16" t="n">
-        <v>0.002354</v>
+        <v>0.002603</v>
       </c>
       <c r="N16" t="n">
-        <v>0.007098</v>
+        <v>0.007405</v>
       </c>
       <c r="O16" t="n">
-        <v>0.001573</v>
+        <v>0.001631</v>
       </c>
       <c r="P16" t="n">
         <v>0</v>
@@ -3147,34 +3147,34 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>6.401000000000001e-05</v>
+        <v>6.975e-05</v>
       </c>
       <c r="S16" t="n">
-        <v>0.0003109</v>
+        <v>0.0003129</v>
       </c>
       <c r="T16" t="n">
-        <v>0.001032</v>
+        <v>0.001089</v>
       </c>
       <c r="U16" t="n">
-        <v>0.0002382</v>
+        <v>0.0002399</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>0.02373</v>
+        <v>0.02511</v>
       </c>
       <c r="X16" t="n">
-        <v>0.1066</v>
+        <v>0.1144</v>
       </c>
       <c r="Y16" t="n">
-        <v>0.2552</v>
+        <v>0.2695</v>
       </c>
       <c r="Z16" t="n">
-        <v>0.3682</v>
+        <v>0.3904</v>
       </c>
       <c r="AA16" t="n">
-        <v>0.1385</v>
+        <v>0.1455</v>
       </c>
     </row>
     <row r="17">
@@ -3193,19 +3193,19 @@
         <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>5.482e-07</v>
+        <v>0.0001078</v>
       </c>
       <c r="F17" t="n">
-        <v>0.00215</v>
+        <v>0.002359</v>
       </c>
       <c r="G17" t="n">
-        <v>0.01047</v>
+        <v>0.01204</v>
       </c>
       <c r="H17" t="n">
-        <v>0.02659</v>
+        <v>0.02718</v>
       </c>
       <c r="I17" t="n">
-        <v>0.006108</v>
+        <v>0.0066</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -3214,16 +3214,16 @@
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>0.0005092</v>
+        <v>0.0005241</v>
       </c>
       <c r="M17" t="n">
-        <v>0.002316</v>
+        <v>0.002624</v>
       </c>
       <c r="N17" t="n">
-        <v>0.006985</v>
+        <v>0.007496</v>
       </c>
       <c r="O17" t="n">
-        <v>0.001539</v>
+        <v>0.001653</v>
       </c>
       <c r="P17" t="n">
         <v>0</v>
@@ -3232,34 +3232,34 @@
         <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>6.421e-05</v>
+        <v>7.045e-05</v>
       </c>
       <c r="S17" t="n">
-        <v>0.0003001</v>
+        <v>0.0003195</v>
       </c>
       <c r="T17" t="n">
-        <v>0.001013</v>
+        <v>0.001107</v>
       </c>
       <c r="U17" t="n">
-        <v>0.0002303</v>
+        <v>0.0002446</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>0.02381</v>
+        <v>0.0252</v>
       </c>
       <c r="X17" t="n">
-        <v>0.1069</v>
+        <v>0.1147</v>
       </c>
       <c r="Y17" t="n">
-        <v>0.2559</v>
+        <v>0.2698</v>
       </c>
       <c r="Z17" t="n">
-        <v>0.3693</v>
+        <v>0.3907</v>
       </c>
       <c r="AA17" t="n">
-        <v>0.1389</v>
+        <v>0.1457</v>
       </c>
     </row>
     <row r="18">
@@ -3278,19 +3278,19 @@
         <v>0</v>
       </c>
       <c r="E18" t="n">
-        <v>2.687e-06</v>
+        <v>0.0001092</v>
       </c>
       <c r="F18" t="n">
-        <v>0.002137</v>
+        <v>0.002351</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01048</v>
+        <v>0.01193</v>
       </c>
       <c r="H18" t="n">
-        <v>0.02656</v>
+        <v>0.02686</v>
       </c>
       <c r="I18" t="n">
-        <v>0.006109</v>
+        <v>0.006531</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -3299,16 +3299,16 @@
         <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0005089</v>
+        <v>0.0005208</v>
       </c>
       <c r="M18" t="n">
-        <v>0.002307</v>
+        <v>0.002598</v>
       </c>
       <c r="N18" t="n">
-        <v>0.006991</v>
+        <v>0.0074</v>
       </c>
       <c r="O18" t="n">
-        <v>0.001536</v>
+        <v>0.00163</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -3317,34 +3317,34 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>6.289e-05</v>
+        <v>6.954e-05</v>
       </c>
       <c r="S18" t="n">
-        <v>0.0003005</v>
+        <v>0.0003134</v>
       </c>
       <c r="T18" t="n">
-        <v>0.001009</v>
+        <v>0.001089</v>
       </c>
       <c r="U18" t="n">
-        <v>0.0002299</v>
+        <v>0.0002399</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="n">
-        <v>0.02388</v>
+        <v>0.02509</v>
       </c>
       <c r="X18" t="n">
-        <v>0.107</v>
+        <v>0.1143</v>
       </c>
       <c r="Y18" t="n">
-        <v>0.2559</v>
+        <v>0.2693</v>
       </c>
       <c r="Z18" t="n">
-        <v>0.3689</v>
+        <v>0.3902</v>
       </c>
       <c r="AA18" t="n">
-        <v>0.1389</v>
+        <v>0.1454</v>
       </c>
     </row>
     <row r="19">
@@ -3363,19 +3363,19 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>4.544e-06</v>
+        <v>0.0001045</v>
       </c>
       <c r="F19" t="n">
-        <v>0.002131</v>
+        <v>0.002354</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01071</v>
+        <v>0.01208</v>
       </c>
       <c r="H19" t="n">
         <v>0.02728</v>
       </c>
       <c r="I19" t="n">
-        <v>0.006225</v>
+        <v>0.006614</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -3384,16 +3384,16 @@
         <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0005121</v>
+        <v>0.000526</v>
       </c>
       <c r="M19" t="n">
-        <v>0.00236</v>
+        <v>0.002621</v>
       </c>
       <c r="N19" t="n">
-        <v>0.007123</v>
+        <v>0.007515</v>
       </c>
       <c r="O19" t="n">
-        <v>0.001578</v>
+        <v>0.001657</v>
       </c>
       <c r="P19" t="n">
         <v>0</v>
@@ -3402,34 +3402,34 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>6.379e-05</v>
+        <v>7.07e-05</v>
       </c>
       <c r="S19" t="n">
-        <v>0.0003114</v>
+        <v>0.0003211</v>
       </c>
       <c r="T19" t="n">
-        <v>0.001034</v>
+        <v>0.001111</v>
       </c>
       <c r="U19" t="n">
-        <v>0.0002395</v>
+        <v>0.0002458</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>0.02383</v>
+        <v>0.0252</v>
       </c>
       <c r="X19" t="n">
-        <v>0.107</v>
+        <v>0.1147</v>
       </c>
       <c r="Y19" t="n">
-        <v>0.2559</v>
+        <v>0.2697</v>
       </c>
       <c r="Z19" t="n">
-        <v>0.3692</v>
+        <v>0.3906</v>
       </c>
       <c r="AA19" t="n">
-        <v>0.1389</v>
+        <v>0.1457</v>
       </c>
     </row>
     <row r="20">
@@ -3448,19 +3448,19 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>2.689e-05</v>
+        <v>0.000154</v>
       </c>
       <c r="F20" t="n">
-        <v>0.002428</v>
+        <v>0.0027</v>
       </c>
       <c r="G20" t="n">
-        <v>0.01237</v>
+        <v>0.01489</v>
       </c>
       <c r="H20" t="n">
-        <v>0.03119</v>
+        <v>0.03266</v>
       </c>
       <c r="I20" t="n">
-        <v>0.007166</v>
+        <v>0.007939</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -3469,16 +3469,16 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>0.0006076</v>
+        <v>0.0006186</v>
       </c>
       <c r="M20" t="n">
-        <v>0.002796</v>
+        <v>0.003355</v>
       </c>
       <c r="N20" t="n">
-        <v>0.00882</v>
+        <v>0.009578</v>
       </c>
       <c r="O20" t="n">
-        <v>0.001871</v>
+        <v>0.00209</v>
       </c>
       <c r="P20" t="n">
         <v>0</v>
@@ -3487,34 +3487,34 @@
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>7.720000000000001e-05</v>
+        <v>8.941e-05</v>
       </c>
       <c r="S20" t="n">
-        <v>0.0003703</v>
+        <v>0.0004285</v>
       </c>
       <c r="T20" t="n">
-        <v>0.001387</v>
+        <v>0.00158</v>
       </c>
       <c r="U20" t="n">
-        <v>0.0002959</v>
+        <v>0.000334</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0.02593</v>
+        <v>0.02698</v>
       </c>
       <c r="X20" t="n">
-        <v>0.1113</v>
+        <v>0.1207</v>
       </c>
       <c r="Y20" t="n">
-        <v>0.2722</v>
+        <v>0.2827</v>
       </c>
       <c r="Z20" t="n">
-        <v>0.3837</v>
+        <v>0.4135</v>
       </c>
       <c r="AA20" t="n">
-        <v>0.1457</v>
+        <v>0.1527</v>
       </c>
     </row>
     <row r="21">
@@ -3533,19 +3533,19 @@
         <v>0</v>
       </c>
       <c r="E21" t="n">
-        <v>0.0002212</v>
+        <v>0.0002871</v>
       </c>
       <c r="F21" t="n">
-        <v>0.003307</v>
+        <v>0.003678</v>
       </c>
       <c r="G21" t="n">
-        <v>0.01651</v>
+        <v>0.01903</v>
       </c>
       <c r="H21" t="n">
-        <v>0.03875</v>
+        <v>0.03973</v>
       </c>
       <c r="I21" t="n">
-        <v>0.009209999999999999</v>
+        <v>0.009908999999999999</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -3554,16 +3554,16 @@
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0.0008776</v>
+        <v>0.0008886</v>
       </c>
       <c r="M21" t="n">
-        <v>0.004223</v>
+        <v>0.004967</v>
       </c>
       <c r="N21" t="n">
-        <v>0.01227</v>
+        <v>0.01288</v>
       </c>
       <c r="O21" t="n">
-        <v>0.002648</v>
+        <v>0.002885</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -3572,34 +3572,34 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>7.576e-06</v>
+        <v>8.684e-06</v>
       </c>
       <c r="S21" t="n">
-        <v>6.342e-05</v>
+        <v>6.659e-05</v>
       </c>
       <c r="T21" t="n">
-        <v>0.000198</v>
+        <v>0.0002336</v>
       </c>
       <c r="U21" t="n">
-        <v>4.811e-05</v>
+        <v>5.082e-05</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="n">
-        <v>0.05894</v>
+        <v>0.06562999999999999</v>
       </c>
       <c r="X21" t="n">
-        <v>0.2361</v>
+        <v>0.2443</v>
       </c>
       <c r="Y21" t="n">
-        <v>0.486</v>
+        <v>0.5038</v>
       </c>
       <c r="Z21" t="n">
-        <v>0.6458</v>
+        <v>0.6698</v>
       </c>
       <c r="AA21" t="n">
-        <v>0.2696</v>
+        <v>0.2795</v>
       </c>
     </row>
     <row r="22">
@@ -3618,19 +3618,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0.0001235</v>
+        <v>0.0002301</v>
       </c>
       <c r="F22" t="n">
-        <v>0.002882</v>
+        <v>0.003126</v>
       </c>
       <c r="G22" t="n">
-        <v>0.01425</v>
+        <v>0.01584</v>
       </c>
       <c r="H22" t="n">
-        <v>0.03469</v>
+        <v>0.03362</v>
       </c>
       <c r="I22" t="n">
-        <v>0.008082000000000001</v>
+        <v>0.008403000000000001</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -3639,16 +3639,16 @@
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>0.0002623</v>
+        <v>0.0002581</v>
       </c>
       <c r="M22" t="n">
-        <v>0.001063</v>
+        <v>0.00117</v>
       </c>
       <c r="N22" t="n">
-        <v>0.003483</v>
+        <v>0.003835</v>
       </c>
       <c r="O22" t="n">
-        <v>0.0007592</v>
+        <v>0.0008117000000000001</v>
       </c>
       <c r="P22" t="n">
         <v>0</v>
@@ -3657,34 +3657,34 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>2.579e-05</v>
+        <v>3.263e-05</v>
       </c>
       <c r="S22" t="n">
-        <v>0.0001446</v>
+        <v>0.0001617</v>
       </c>
       <c r="T22" t="n">
-        <v>0.0005043</v>
+        <v>0.0005603</v>
       </c>
       <c r="U22" t="n">
-        <v>0.0001166</v>
+        <v>0.000124</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>0.04069</v>
+        <v>0.04434</v>
       </c>
       <c r="X22" t="n">
-        <v>0.1613</v>
+        <v>0.1696</v>
       </c>
       <c r="Y22" t="n">
-        <v>0.3517</v>
+        <v>0.3704</v>
       </c>
       <c r="Z22" t="n">
-        <v>0.4853</v>
+        <v>0.5091</v>
       </c>
       <c r="AA22" t="n">
-        <v>0.195</v>
+        <v>0.2033</v>
       </c>
     </row>
   </sheetData>
